--- a/biology/Botanique/Curé_(poire)/Curé_(poire).xlsx
+++ b/biology/Botanique/Curé_(poire)/Curé_(poire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cur%C3%A9_(poire)</t>
+          <t>Curé_(poire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Curé est une variété de poire découverte à la fin du XVIIIe siècle, par le curé de Villiers dans l'Indre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cur%C3%A9_(poire)</t>
+          <t>Curé_(poire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Belle Adrienne.
 Belle de Berry.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cur%C3%A9_(poire)</t>
+          <t>Curé_(poire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,11 +565,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poire d'origine berrichonne, elle a été découverte dans les bois de Fromenteau par le curé de Villiers-en-Brenne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poire d'origine berrichonne, elle a été découverte dans les bois de Fromenteau par le curé de Villiers-en-Brenne.
 Le fruit a été trouvé par hasard, en 1760 près de Clion (Indre). André Leroy, pépiniériste et auteur du célèbre Dictionnaire de Pomologie, prétend, en 1867, qu’il a prélevé des greffons directement de l’arbre-mère de Clion pour diffuser la « Curé ».
-Avec et sans l'aide d'André Leroy, de l’Indre, la poire « Curé » s’est répandue rapidement dans toute la France puis dans le monde entier. Elle est rapidement devenue la poire française la plus estimée[2], à son époque.
+Avec et sans l'aide d'André Leroy, de l’Indre, la poire « Curé » s’est répandue rapidement dans toute la France puis dans le monde entier. Elle est rapidement devenue la poire française la plus estimée, à son époque.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cur%C3%A9_(poire)</t>
+          <t>Curé_(poire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rameaux assez gros, coudés retombants, rouge grisâtre ; à lenticelles peu nombreuses, assez grandes et saillantes.
 Les yeux sont plutôt moyens, coniques.
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cur%C3%A9_(poire)</t>
+          <t>Curé_(poire)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruit : gros à très gros.
 Forme du fruit : piriforme, allongée, affectant la forme d'une calebasse.
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cur%C3%A9_(poire)</t>
+          <t>Curé_(poire)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,7 +679,9 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle s'adapte bien en montagne.
 L'arbre est de toute première vigueur sur franc comme sur cognassier, mais on peut remarquer une meilleure productivité sur le premier. La greffe sur aubépine réussit également très bien.
